--- a/data/134/DEUSTATIS/old/National accounts - Gross national income quarters.xlsx
+++ b/data/134/DEUSTATIS/old/National accounts - Gross national income quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="57">
   <si>
     <t>National accounts - Gross national income, national income:
 Germany, quarters, original and adjusted data</t>
@@ -183,7 +183,7 @@
     <t>paid by general government.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 09:45:20</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:48:14</t>
   </si>
 </sst>
 </file>
@@ -3809,13 +3809,13 @@
         <v>911.128</v>
       </c>
       <c r="DS7" t="n" s="10">
-        <v>875.476</v>
+        <v>875.5</v>
       </c>
       <c r="DT7" t="n" s="10">
-        <v>872.977</v>
-      </c>
-      <c r="DU7" t="s" s="10">
-        <v>43</v>
+        <v>877.095</v>
+      </c>
+      <c r="DU7" t="n" s="10">
+        <v>942.615</v>
       </c>
       <c r="DV7" t="s" s="10">
         <v>43</v>
@@ -4189,13 +4189,13 @@
         <v>164.662</v>
       </c>
       <c r="DS8" t="n" s="10">
-        <v>167.922</v>
+        <v>168.115</v>
       </c>
       <c r="DT8" t="n" s="10">
-        <v>171.138</v>
-      </c>
-      <c r="DU8" t="s" s="10">
-        <v>43</v>
+        <v>171.345</v>
+      </c>
+      <c r="DU8" t="n" s="10">
+        <v>176.084</v>
       </c>
       <c r="DV8" t="s" s="10">
         <v>43</v>
@@ -4569,13 +4569,13 @@
         <v>746.466</v>
       </c>
       <c r="DS9" t="n" s="10">
-        <v>707.554</v>
+        <v>707.385</v>
       </c>
       <c r="DT9" t="n" s="10">
-        <v>701.839</v>
-      </c>
-      <c r="DU9" t="s" s="10">
-        <v>43</v>
+        <v>705.75</v>
+      </c>
+      <c r="DU9" t="n" s="10">
+        <v>766.531</v>
       </c>
       <c r="DV9" t="s" s="10">
         <v>43</v>
@@ -4949,13 +4949,13 @@
         <v>66.808</v>
       </c>
       <c r="DS10" t="n" s="10">
-        <v>62.897</v>
+        <v>63.069</v>
       </c>
       <c r="DT10" t="n" s="10">
-        <v>66.64</v>
-      </c>
-      <c r="DU10" t="s" s="10">
-        <v>43</v>
+        <v>67.497</v>
+      </c>
+      <c r="DU10" t="n" s="10">
+        <v>79.898</v>
       </c>
       <c r="DV10" t="s" s="10">
         <v>43</v>
@@ -5329,13 +5329,13 @@
         <v>679.658</v>
       </c>
       <c r="DS11" t="n" s="10">
-        <v>644.657</v>
+        <v>644.316</v>
       </c>
       <c r="DT11" t="n" s="10">
-        <v>635.199</v>
-      </c>
-      <c r="DU11" t="s" s="10">
-        <v>43</v>
+        <v>638.253</v>
+      </c>
+      <c r="DU11" t="n" s="10">
+        <v>686.633</v>
       </c>
       <c r="DV11" t="s" s="10">
         <v>43</v>
@@ -5709,13 +5709,13 @@
         <v>170.59</v>
       </c>
       <c r="DS12" t="n" s="10">
-        <v>199.396</v>
+        <v>199.07</v>
       </c>
       <c r="DT12" t="n" s="10">
-        <v>174.108</v>
-      </c>
-      <c r="DU12" t="s" s="10">
-        <v>43</v>
+        <v>175.202</v>
+      </c>
+      <c r="DU12" t="n" s="10">
+        <v>210.022</v>
       </c>
       <c r="DV12" t="s" s="10">
         <v>43</v>
@@ -6089,13 +6089,13 @@
         <v>509.068</v>
       </c>
       <c r="DS13" t="n" s="10">
-        <v>445.261</v>
+        <v>445.246</v>
       </c>
       <c r="DT13" t="n" s="10">
-        <v>461.091</v>
-      </c>
-      <c r="DU13" t="s" s="10">
-        <v>43</v>
+        <v>463.051</v>
+      </c>
+      <c r="DU13" t="n" s="10">
+        <v>476.611</v>
       </c>
       <c r="DV13" t="s" s="10">
         <v>43</v>
@@ -6474,13 +6474,13 @@
         <v>887.311</v>
       </c>
       <c r="DS15" t="n" s="10">
-        <v>882.655</v>
+        <v>882.679</v>
       </c>
       <c r="DT15" t="n" s="10">
-        <v>896.015</v>
-      </c>
-      <c r="DU15" t="s" s="10">
-        <v>43</v>
+        <v>900.138</v>
+      </c>
+      <c r="DU15" t="n" s="10">
+        <v>938.59</v>
       </c>
       <c r="DV15" t="s" s="10">
         <v>43</v>
@@ -6854,13 +6854,13 @@
         <v>165.249</v>
       </c>
       <c r="DS16" t="n" s="10">
-        <v>167.391</v>
+        <v>167.584</v>
       </c>
       <c r="DT16" t="n" s="10">
-        <v>170.98</v>
-      </c>
-      <c r="DU16" t="s" s="10">
-        <v>43</v>
+        <v>171.187</v>
+      </c>
+      <c r="DU16" t="n" s="10">
+        <v>176.15</v>
       </c>
       <c r="DV16" t="s" s="10">
         <v>43</v>
@@ -7234,13 +7234,13 @@
         <v>722.062</v>
       </c>
       <c r="DS17" t="n" s="10">
-        <v>715.264</v>
+        <v>715.095</v>
       </c>
       <c r="DT17" t="n" s="10">
-        <v>725.035</v>
-      </c>
-      <c r="DU17" t="s" s="10">
-        <v>43</v>
+        <v>728.951</v>
+      </c>
+      <c r="DU17" t="n" s="10">
+        <v>762.44</v>
       </c>
       <c r="DV17" t="s" s="10">
         <v>43</v>
@@ -7614,13 +7614,13 @@
         <v>69.903</v>
       </c>
       <c r="DS18" t="n" s="10">
-        <v>61.308</v>
+        <v>61.484</v>
       </c>
       <c r="DT18" t="n" s="10">
-        <v>64.33</v>
-      </c>
-      <c r="DU18" t="s" s="10">
-        <v>43</v>
+        <v>65.068</v>
+      </c>
+      <c r="DU18" t="n" s="10">
+        <v>80.034</v>
       </c>
       <c r="DV18" t="s" s="10">
         <v>43</v>
@@ -7994,13 +7994,13 @@
         <v>652.159</v>
       </c>
       <c r="DS19" t="n" s="10">
-        <v>653.956</v>
+        <v>653.611</v>
       </c>
       <c r="DT19" t="n" s="10">
-        <v>660.705</v>
-      </c>
-      <c r="DU19" t="s" s="10">
-        <v>43</v>
+        <v>663.883</v>
+      </c>
+      <c r="DU19" t="n" s="10">
+        <v>682.406</v>
       </c>
       <c r="DV19" t="s" s="10">
         <v>43</v>
@@ -8374,13 +8374,13 @@
         <v>181.621</v>
       </c>
       <c r="DS20" t="n" s="10">
-        <v>185.99</v>
+        <v>185.663</v>
       </c>
       <c r="DT20" t="n" s="10">
-        <v>191.399</v>
-      </c>
-      <c r="DU20" t="s" s="10">
-        <v>43</v>
+        <v>192.63</v>
+      </c>
+      <c r="DU20" t="n" s="10">
+        <v>198.041</v>
       </c>
       <c r="DV20" t="s" s="10">
         <v>43</v>
@@ -8754,13 +8754,13 @@
         <v>470.538</v>
       </c>
       <c r="DS21" t="n" s="10">
-        <v>467.966</v>
+        <v>467.948</v>
       </c>
       <c r="DT21" t="n" s="10">
-        <v>469.306</v>
-      </c>
-      <c r="DU21" t="s" s="10">
-        <v>43</v>
+        <v>471.253</v>
+      </c>
+      <c r="DU21" t="n" s="10">
+        <v>484.365</v>
       </c>
       <c r="DV21" t="s" s="10">
         <v>43</v>
@@ -8938,76 +8938,76 @@
         <v>565.117</v>
       </c>
       <c r="BD23" t="n" s="10">
-        <v>568.554</v>
+        <v>568.552</v>
       </c>
       <c r="BE23" t="n" s="10">
-        <v>569.434</v>
+        <v>569.429</v>
       </c>
       <c r="BF23" t="n" s="10">
-        <v>573.282</v>
+        <v>573.278</v>
       </c>
       <c r="BG23" t="n" s="10">
-        <v>568.134</v>
+        <v>568.182</v>
       </c>
       <c r="BH23" t="n" s="10">
-        <v>576.261</v>
+        <v>576.287</v>
       </c>
       <c r="BI23" t="n" s="10">
-        <v>579.841</v>
+        <v>579.736</v>
       </c>
       <c r="BJ23" t="n" s="10">
-        <v>583.812</v>
+        <v>583.554</v>
       </c>
       <c r="BK23" t="n" s="10">
-        <v>593.667</v>
+        <v>594.169</v>
       </c>
       <c r="BL23" t="n" s="10">
-        <v>601.47</v>
+        <v>601.604</v>
       </c>
       <c r="BM23" t="n" s="10">
-        <v>609.973</v>
+        <v>609.565</v>
       </c>
       <c r="BN23" t="n" s="10">
-        <v>621.169</v>
+        <v>620.603</v>
       </c>
       <c r="BO23" t="n" s="10">
-        <v>626.832</v>
+        <v>627.719</v>
       </c>
       <c r="BP23" t="n" s="10">
-        <v>626.961</v>
+        <v>627.164</v>
       </c>
       <c r="BQ23" t="n" s="10">
-        <v>636.495</v>
+        <v>635.977</v>
       </c>
       <c r="BR23" t="n" s="10">
-        <v>643.535</v>
+        <v>643.171</v>
       </c>
       <c r="BS23" t="n" s="10">
-        <v>643.771</v>
+        <v>644.273</v>
       </c>
       <c r="BT23" t="n" s="10">
-        <v>648.906</v>
+        <v>649.04</v>
       </c>
       <c r="BU23" t="n" s="10">
-        <v>642.538</v>
+        <v>642.324</v>
       </c>
       <c r="BV23" t="n" s="10">
-        <v>632.534</v>
+        <v>632.476</v>
       </c>
       <c r="BW23" t="n" s="10">
-        <v>620.677</v>
+        <v>620.726</v>
       </c>
       <c r="BX23" t="n" s="10">
-        <v>619.504</v>
+        <v>619.529</v>
       </c>
       <c r="BY23" t="n" s="10">
-        <v>626.997</v>
+        <v>626.992</v>
       </c>
       <c r="BZ23" t="n" s="10">
-        <v>634.069</v>
+        <v>634.065</v>
       </c>
       <c r="CA23" t="n" s="10">
-        <v>640.658</v>
+        <v>640.657</v>
       </c>
       <c r="CB23" t="n" s="10">
         <v>650.828</v>
@@ -9085,67 +9085,67 @@
         <v>804.98</v>
       </c>
       <c r="DA23" t="n" s="10">
-        <v>804.489</v>
+        <v>804.488</v>
       </c>
       <c r="DB23" t="n" s="10">
-        <v>811.834</v>
+        <v>811.833</v>
       </c>
       <c r="DC23" t="n" s="10">
-        <v>824.421</v>
+        <v>824.42</v>
       </c>
       <c r="DD23" t="n" s="10">
-        <v>827.163</v>
+        <v>827.177</v>
       </c>
       <c r="DE23" t="n" s="10">
-        <v>842.41</v>
+        <v>842.403</v>
       </c>
       <c r="DF23" t="n" s="10">
-        <v>850.205</v>
+        <v>850.161</v>
       </c>
       <c r="DG23" t="n" s="10">
-        <v>855.792</v>
+        <v>855.728</v>
       </c>
       <c r="DH23" t="n" s="10">
-        <v>867.885</v>
+        <v>868.248</v>
       </c>
       <c r="DI23" t="n" s="10">
-        <v>870.335</v>
+        <v>870.275</v>
       </c>
       <c r="DJ23" t="n" s="10">
-        <v>880.805</v>
+        <v>880.346</v>
       </c>
       <c r="DK23" t="n" s="10">
-        <v>890.402</v>
+        <v>889.58</v>
       </c>
       <c r="DL23" t="n" s="10">
-        <v>890.094</v>
+        <v>892.749</v>
       </c>
       <c r="DM23" t="n" s="10">
-        <v>905.328</v>
+        <v>904.108</v>
       </c>
       <c r="DN23" t="n" s="10">
-        <v>899.101</v>
+        <v>897.59</v>
       </c>
       <c r="DO23" t="n" s="10">
-        <v>893.68</v>
+        <v>892.593</v>
       </c>
       <c r="DP23" t="n" s="10">
-        <v>809.848</v>
+        <v>816.516</v>
       </c>
       <c r="DQ23" t="n" s="10">
-        <v>875.34</v>
+        <v>872.146</v>
       </c>
       <c r="DR23" t="n" s="10">
-        <v>881.335</v>
+        <v>879.196</v>
       </c>
       <c r="DS23" t="n" s="10">
-        <v>882.34</v>
+        <v>881.891</v>
       </c>
       <c r="DT23" t="n" s="10">
-        <v>894.479</v>
-      </c>
-      <c r="DU23" t="s" s="10">
-        <v>43</v>
+        <v>907.226</v>
+      </c>
+      <c r="DU23" t="n" s="10">
+        <v>937.777</v>
       </c>
       <c r="DV23" t="s" s="10">
         <v>43</v>
@@ -9486,46 +9486,46 @@
         <v>149.571</v>
       </c>
       <c r="DH24" t="n" s="10">
-        <v>151.412</v>
+        <v>151.413</v>
       </c>
       <c r="DI24" t="n" s="10">
-        <v>153.533</v>
+        <v>153.537</v>
       </c>
       <c r="DJ24" t="n" s="10">
-        <v>155.447</v>
+        <v>155.456</v>
       </c>
       <c r="DK24" t="n" s="10">
-        <v>157.299</v>
+        <v>157.287</v>
       </c>
       <c r="DL24" t="n" s="10">
-        <v>158.875</v>
+        <v>158.834</v>
       </c>
       <c r="DM24" t="n" s="10">
-        <v>160.735</v>
+        <v>160.734</v>
       </c>
       <c r="DN24" t="n" s="10">
-        <v>162.186</v>
+        <v>162.353</v>
       </c>
       <c r="DO24" t="n" s="10">
-        <v>163.554</v>
+        <v>163.544</v>
       </c>
       <c r="DP24" t="n" s="10">
-        <v>164.652</v>
+        <v>164.387</v>
       </c>
       <c r="DQ24" t="n" s="10">
-        <v>164.815</v>
+        <v>164.839</v>
       </c>
       <c r="DR24" t="n" s="10">
-        <v>165.47</v>
+        <v>165.777</v>
       </c>
       <c r="DS24" t="n" s="10">
-        <v>167.36</v>
+        <v>167.539</v>
       </c>
       <c r="DT24" t="n" s="10">
-        <v>170.417</v>
-      </c>
-      <c r="DU24" t="s" s="10">
-        <v>43</v>
+        <v>170.29</v>
+      </c>
+      <c r="DU24" t="n" s="10">
+        <v>176.548</v>
       </c>
       <c r="DV24" t="s" s="10">
         <v>43</v>
@@ -9698,76 +9698,76 @@
         <v>469.239</v>
       </c>
       <c r="BD25" t="n" s="10">
-        <v>472.067</v>
+        <v>472.065</v>
       </c>
       <c r="BE25" t="n" s="10">
-        <v>472.462</v>
+        <v>472.457</v>
       </c>
       <c r="BF25" t="n" s="10">
-        <v>475.893</v>
+        <v>475.889</v>
       </c>
       <c r="BG25" t="n" s="10">
-        <v>470.366</v>
+        <v>470.414</v>
       </c>
       <c r="BH25" t="n" s="10">
-        <v>478.234</v>
+        <v>478.26</v>
       </c>
       <c r="BI25" t="n" s="10">
-        <v>481.41</v>
+        <v>481.305</v>
       </c>
       <c r="BJ25" t="n" s="10">
-        <v>484.789</v>
+        <v>484.531</v>
       </c>
       <c r="BK25" t="n" s="10">
-        <v>494.359</v>
+        <v>494.861</v>
       </c>
       <c r="BL25" t="n" s="10">
-        <v>501.341</v>
+        <v>501.475</v>
       </c>
       <c r="BM25" t="n" s="10">
-        <v>508.715</v>
+        <v>508.307</v>
       </c>
       <c r="BN25" t="n" s="10">
-        <v>518.707</v>
+        <v>518.141</v>
       </c>
       <c r="BO25" t="n" s="10">
-        <v>522.576</v>
+        <v>523.463</v>
       </c>
       <c r="BP25" t="n" s="10">
-        <v>521.64</v>
+        <v>521.843</v>
       </c>
       <c r="BQ25" t="n" s="10">
-        <v>530.237</v>
+        <v>529.719</v>
       </c>
       <c r="BR25" t="n" s="10">
-        <v>536.119</v>
+        <v>535.755</v>
       </c>
       <c r="BS25" t="n" s="10">
-        <v>535.325</v>
+        <v>535.827</v>
       </c>
       <c r="BT25" t="n" s="10">
-        <v>539.124</v>
+        <v>539.258</v>
       </c>
       <c r="BU25" t="n" s="10">
-        <v>531.541</v>
+        <v>531.327</v>
       </c>
       <c r="BV25" t="n" s="10">
-        <v>520.93</v>
+        <v>520.872</v>
       </c>
       <c r="BW25" t="n" s="10">
-        <v>508.431</v>
+        <v>508.48</v>
       </c>
       <c r="BX25" t="n" s="10">
-        <v>506.847</v>
+        <v>506.872</v>
       </c>
       <c r="BY25" t="n" s="10">
-        <v>513.847</v>
+        <v>513.842</v>
       </c>
       <c r="BZ25" t="n" s="10">
-        <v>520.088</v>
+        <v>520.084</v>
       </c>
       <c r="CA25" t="n" s="10">
-        <v>526.305</v>
+        <v>526.304</v>
       </c>
       <c r="CB25" t="n" s="10">
         <v>535.713</v>
@@ -9845,67 +9845,67 @@
         <v>665.927</v>
       </c>
       <c r="DA25" t="n" s="10">
-        <v>664.222</v>
+        <v>664.221</v>
       </c>
       <c r="DB25" t="n" s="10">
-        <v>670.321</v>
+        <v>670.32</v>
       </c>
       <c r="DC25" t="n" s="10">
-        <v>681.395</v>
+        <v>681.394</v>
       </c>
       <c r="DD25" t="n" s="10">
-        <v>682.619</v>
+        <v>682.633</v>
       </c>
       <c r="DE25" t="n" s="10">
-        <v>696.365</v>
+        <v>696.358</v>
       </c>
       <c r="DF25" t="n" s="10">
-        <v>702.396</v>
+        <v>702.352</v>
       </c>
       <c r="DG25" t="n" s="10">
-        <v>706.221</v>
+        <v>706.157</v>
       </c>
       <c r="DH25" t="n" s="10">
-        <v>716.473</v>
+        <v>716.835</v>
       </c>
       <c r="DI25" t="n" s="10">
-        <v>716.802</v>
+        <v>716.738</v>
       </c>
       <c r="DJ25" t="n" s="10">
-        <v>725.358</v>
+        <v>724.89</v>
       </c>
       <c r="DK25" t="n" s="10">
-        <v>733.103</v>
+        <v>732.293</v>
       </c>
       <c r="DL25" t="n" s="10">
-        <v>731.219</v>
+        <v>733.915</v>
       </c>
       <c r="DM25" t="n" s="10">
-        <v>744.593</v>
+        <v>743.374</v>
       </c>
       <c r="DN25" t="n" s="10">
-        <v>736.915</v>
+        <v>735.237</v>
       </c>
       <c r="DO25" t="n" s="10">
-        <v>730.126</v>
+        <v>729.049</v>
       </c>
       <c r="DP25" t="n" s="10">
-        <v>645.196</v>
+        <v>652.129</v>
       </c>
       <c r="DQ25" t="n" s="10">
-        <v>710.525</v>
+        <v>707.307</v>
       </c>
       <c r="DR25" t="n" s="10">
-        <v>715.865</v>
+        <v>713.419</v>
       </c>
       <c r="DS25" t="n" s="10">
-        <v>714.98</v>
+        <v>714.352</v>
       </c>
       <c r="DT25" t="n" s="10">
-        <v>724.062</v>
-      </c>
-      <c r="DU25" t="s" s="10">
-        <v>43</v>
+        <v>736.936</v>
+      </c>
+      <c r="DU25" t="n" s="10">
+        <v>761.229</v>
       </c>
       <c r="DV25" t="s" s="10">
         <v>43</v>
@@ -10078,76 +10078,76 @@
         <v>52.81</v>
       </c>
       <c r="BD26" t="n" s="10">
-        <v>51.181</v>
+        <v>51.179</v>
       </c>
       <c r="BE26" t="n" s="10">
-        <v>51.775</v>
+        <v>51.77</v>
       </c>
       <c r="BF26" t="n" s="10">
-        <v>52.575</v>
+        <v>52.571</v>
       </c>
       <c r="BG26" t="n" s="10">
-        <v>51.678</v>
+        <v>51.726</v>
       </c>
       <c r="BH26" t="n" s="10">
-        <v>52.881</v>
+        <v>52.907</v>
       </c>
       <c r="BI26" t="n" s="10">
-        <v>54.28</v>
+        <v>54.175</v>
       </c>
       <c r="BJ26" t="n" s="10">
-        <v>54.308</v>
+        <v>54.05</v>
       </c>
       <c r="BK26" t="n" s="10">
-        <v>53.593</v>
+        <v>54.095</v>
       </c>
       <c r="BL26" t="n" s="10">
-        <v>54.517</v>
+        <v>54.651</v>
       </c>
       <c r="BM26" t="n" s="10">
-        <v>55.783</v>
+        <v>55.375</v>
       </c>
       <c r="BN26" t="n" s="10">
-        <v>58.7</v>
+        <v>58.134</v>
       </c>
       <c r="BO26" t="n" s="10">
-        <v>59.591</v>
+        <v>60.478</v>
       </c>
       <c r="BP26" t="n" s="10">
-        <v>59.692</v>
+        <v>59.895</v>
       </c>
       <c r="BQ26" t="n" s="10">
-        <v>62.413</v>
+        <v>61.895</v>
       </c>
       <c r="BR26" t="n" s="10">
-        <v>63.574</v>
+        <v>63.21</v>
       </c>
       <c r="BS26" t="n" s="10">
-        <v>60.365</v>
+        <v>60.867</v>
       </c>
       <c r="BT26" t="n" s="10">
-        <v>62.013</v>
+        <v>62.147</v>
       </c>
       <c r="BU26" t="n" s="10">
-        <v>63.337</v>
+        <v>63.123</v>
       </c>
       <c r="BV26" t="n" s="10">
-        <v>62.946</v>
+        <v>62.888</v>
       </c>
       <c r="BW26" t="n" s="10">
-        <v>61.123</v>
+        <v>61.172</v>
       </c>
       <c r="BX26" t="n" s="10">
-        <v>60.621</v>
+        <v>60.646</v>
       </c>
       <c r="BY26" t="n" s="10">
-        <v>60.275</v>
+        <v>60.27</v>
       </c>
       <c r="BZ26" t="n" s="10">
-        <v>60.873</v>
+        <v>60.869</v>
       </c>
       <c r="CA26" t="n" s="10">
-        <v>59.365</v>
+        <v>59.364</v>
       </c>
       <c r="CB26" t="n" s="10">
         <v>62.107</v>
@@ -10225,67 +10225,67 @@
         <v>76.811</v>
       </c>
       <c r="DA26" t="n" s="10">
-        <v>77.542</v>
+        <v>77.541</v>
       </c>
       <c r="DB26" t="n" s="10">
-        <v>77.984</v>
+        <v>77.983</v>
       </c>
       <c r="DC26" t="n" s="10">
-        <v>79.562</v>
+        <v>79.561</v>
       </c>
       <c r="DD26" t="n" s="10">
-        <v>79.385</v>
+        <v>79.399</v>
       </c>
       <c r="DE26" t="n" s="10">
-        <v>79.658</v>
+        <v>79.654</v>
       </c>
       <c r="DF26" t="n" s="10">
-        <v>81.092</v>
+        <v>81.053</v>
       </c>
       <c r="DG26" t="n" s="10">
-        <v>81.449</v>
+        <v>81.388</v>
       </c>
       <c r="DH26" t="n" s="10">
-        <v>81.435</v>
+        <v>81.729</v>
       </c>
       <c r="DI26" t="n" s="10">
-        <v>83.004</v>
+        <v>82.94</v>
       </c>
       <c r="DJ26" t="n" s="10">
-        <v>82.91</v>
+        <v>82.579</v>
       </c>
       <c r="DK26" t="n" s="10">
-        <v>85.287</v>
+        <v>84.742</v>
       </c>
       <c r="DL26" t="n" s="10">
-        <v>81.157</v>
+        <v>83.063</v>
       </c>
       <c r="DM26" t="n" s="10">
-        <v>86.78</v>
+        <v>85.932</v>
       </c>
       <c r="DN26" t="n" s="10">
-        <v>85.511</v>
+        <v>84.277</v>
       </c>
       <c r="DO26" t="n" s="10">
-        <v>81.424</v>
+        <v>80.668</v>
       </c>
       <c r="DP26" t="n" s="10">
-        <v>54.679</v>
+        <v>59.288</v>
       </c>
       <c r="DQ26" t="n" s="10">
-        <v>70.705</v>
+        <v>68.096</v>
       </c>
       <c r="DR26" t="n" s="10">
-        <v>67.783</v>
+        <v>65.984</v>
       </c>
       <c r="DS26" t="n" s="10">
-        <v>63.82</v>
+        <v>63.552</v>
       </c>
       <c r="DT26" t="n" s="10">
-        <v>62.069</v>
-      </c>
-      <c r="DU26" t="s" s="10">
-        <v>43</v>
+        <v>69.096</v>
+      </c>
+      <c r="DU26" t="n" s="10">
+        <v>77.934</v>
       </c>
       <c r="DV26" t="s" s="10">
         <v>43</v>
@@ -10617,55 +10617,55 @@
         <v>603.234</v>
       </c>
       <c r="DE27" t="n" s="10">
-        <v>616.707</v>
+        <v>616.704</v>
       </c>
       <c r="DF27" t="n" s="10">
-        <v>621.304</v>
+        <v>621.299</v>
       </c>
       <c r="DG27" t="n" s="10">
-        <v>624.772</v>
+        <v>624.769</v>
       </c>
       <c r="DH27" t="n" s="10">
-        <v>635.038</v>
+        <v>635.106</v>
       </c>
       <c r="DI27" t="n" s="10">
         <v>633.798</v>
       </c>
       <c r="DJ27" t="n" s="10">
-        <v>642.448</v>
+        <v>642.311</v>
       </c>
       <c r="DK27" t="n" s="10">
-        <v>647.816</v>
+        <v>647.551</v>
       </c>
       <c r="DL27" t="n" s="10">
-        <v>650.062</v>
+        <v>650.852</v>
       </c>
       <c r="DM27" t="n" s="10">
-        <v>657.813</v>
+        <v>657.442</v>
       </c>
       <c r="DN27" t="n" s="10">
-        <v>651.404</v>
+        <v>650.96</v>
       </c>
       <c r="DO27" t="n" s="10">
-        <v>648.702</v>
+        <v>648.381</v>
       </c>
       <c r="DP27" t="n" s="10">
-        <v>590.517</v>
+        <v>592.841</v>
       </c>
       <c r="DQ27" t="n" s="10">
-        <v>639.82</v>
+        <v>639.211</v>
       </c>
       <c r="DR27" t="n" s="10">
-        <v>648.082</v>
+        <v>647.435</v>
       </c>
       <c r="DS27" t="n" s="10">
-        <v>651.16</v>
+        <v>650.8</v>
       </c>
       <c r="DT27" t="n" s="10">
-        <v>661.993</v>
-      </c>
-      <c r="DU27" t="s" s="10">
-        <v>43</v>
+        <v>667.84</v>
+      </c>
+      <c r="DU27" t="n" s="10">
+        <v>683.295</v>
       </c>
       <c r="DV27" t="s" s="10">
         <v>43</v>
@@ -10679,61 +10679,61 @@
         <v>42</v>
       </c>
       <c r="C28" t="n" s="10">
-        <v>92.599</v>
+        <v>92.606</v>
       </c>
       <c r="D28" t="n" s="10">
-        <v>92.786</v>
+        <v>92.877</v>
       </c>
       <c r="E28" t="n" s="10">
-        <v>94.565</v>
+        <v>94.681</v>
       </c>
       <c r="F28" t="n" s="10">
-        <v>95.734</v>
+        <v>95.512</v>
       </c>
       <c r="G28" t="n" s="10">
-        <v>98.875</v>
+        <v>98.845</v>
       </c>
       <c r="H28" t="n" s="10">
-        <v>96.025</v>
+        <v>96.152</v>
       </c>
       <c r="I28" t="n" s="10">
-        <v>94.495</v>
+        <v>94.638</v>
       </c>
       <c r="J28" t="n" s="10">
-        <v>94.544</v>
+        <v>94.32</v>
       </c>
       <c r="K28" t="n" s="10">
-        <v>94.207</v>
+        <v>94.145</v>
       </c>
       <c r="L28" t="n" s="10">
-        <v>94.922</v>
+        <v>95.058</v>
       </c>
       <c r="M28" t="n" s="10">
-        <v>94.887</v>
+        <v>94.983</v>
       </c>
       <c r="N28" t="n" s="10">
-        <v>93.911</v>
+        <v>93.786</v>
       </c>
       <c r="O28" t="n" s="10">
-        <v>96.236</v>
+        <v>96.196</v>
       </c>
       <c r="P28" t="n" s="10">
-        <v>98.398</v>
+        <v>98.454</v>
       </c>
       <c r="Q28" t="n" s="10">
-        <v>101.38</v>
+        <v>101.396</v>
       </c>
       <c r="R28" t="n" s="10">
-        <v>102.597</v>
+        <v>102.585</v>
       </c>
       <c r="S28" t="n" s="10">
-        <v>104.671</v>
+        <v>104.664</v>
       </c>
       <c r="T28" t="n" s="10">
-        <v>103.479</v>
+        <v>103.481</v>
       </c>
       <c r="U28" t="n" s="10">
-        <v>103.214</v>
+        <v>103.215</v>
       </c>
       <c r="V28" t="n" s="10">
         <v>101.786</v>
@@ -10862,70 +10862,70 @@
         <v>151.547</v>
       </c>
       <c r="BL28" t="n" s="10">
-        <v>155.677</v>
+        <v>155.678</v>
       </c>
       <c r="BM28" t="n" s="10">
-        <v>158.782</v>
+        <v>158.783</v>
       </c>
       <c r="BN28" t="n" s="10">
-        <v>164.461</v>
+        <v>164.462</v>
       </c>
       <c r="BO28" t="n" s="10">
-        <v>165.227</v>
+        <v>165.218</v>
       </c>
       <c r="BP28" t="n" s="10">
-        <v>161.964</v>
+        <v>161.965</v>
       </c>
       <c r="BQ28" t="n" s="10">
-        <v>165.911</v>
+        <v>165.929</v>
       </c>
       <c r="BR28" t="n" s="10">
-        <v>167.935</v>
+        <v>167.971</v>
       </c>
       <c r="BS28" t="n" s="10">
-        <v>166.274</v>
+        <v>166.166</v>
       </c>
       <c r="BT28" t="n" s="10">
-        <v>164.976</v>
+        <v>165.011</v>
       </c>
       <c r="BU28" t="n" s="10">
-        <v>154.259</v>
+        <v>154.311</v>
       </c>
       <c r="BV28" t="n" s="10">
-        <v>141.741</v>
+        <v>141.812</v>
       </c>
       <c r="BW28" t="n" s="10">
-        <v>133.337</v>
+        <v>133.142</v>
       </c>
       <c r="BX28" t="n" s="10">
-        <v>132.604</v>
+        <v>132.675</v>
       </c>
       <c r="BY28" t="n" s="10">
-        <v>138.584</v>
+        <v>138.636</v>
       </c>
       <c r="BZ28" t="n" s="10">
-        <v>143.459</v>
+        <v>143.494</v>
       </c>
       <c r="CA28" t="n" s="10">
-        <v>147.781</v>
+        <v>147.674</v>
       </c>
       <c r="CB28" t="n" s="10">
-        <v>151.553</v>
+        <v>151.589</v>
       </c>
       <c r="CC28" t="n" s="10">
-        <v>152.889</v>
+        <v>152.907</v>
       </c>
       <c r="CD28" t="n" s="10">
         <v>159.003</v>
       </c>
       <c r="CE28" t="n" s="10">
-        <v>164.137</v>
+        <v>164.128</v>
       </c>
       <c r="CF28" t="n" s="10">
         <v>165.069</v>
       </c>
       <c r="CG28" t="n" s="10">
-        <v>168.54</v>
+        <v>168.541</v>
       </c>
       <c r="CH28" t="n" s="10">
         <v>166.749</v>
@@ -10985,67 +10985,67 @@
         <v>185.56</v>
       </c>
       <c r="DA28" t="n" s="10">
-        <v>178.614</v>
+        <v>178.613</v>
       </c>
       <c r="DB28" t="n" s="10">
-        <v>179.918</v>
+        <v>179.917</v>
       </c>
       <c r="DC28" t="n" s="10">
-        <v>184.841</v>
+        <v>184.84</v>
       </c>
       <c r="DD28" t="n" s="10">
-        <v>181.512</v>
+        <v>181.526</v>
       </c>
       <c r="DE28" t="n" s="10">
-        <v>190.85</v>
+        <v>190.847</v>
       </c>
       <c r="DF28" t="n" s="10">
-        <v>190.18</v>
+        <v>190.14</v>
       </c>
       <c r="DG28" t="n" s="10">
-        <v>189.209</v>
+        <v>189.143</v>
       </c>
       <c r="DH28" t="n" s="10">
-        <v>193.948</v>
+        <v>194.248</v>
       </c>
       <c r="DI28" t="n" s="10">
-        <v>187.897</v>
+        <v>187.863</v>
       </c>
       <c r="DJ28" t="n" s="10">
-        <v>192.258</v>
+        <v>191.843</v>
       </c>
       <c r="DK28" t="n" s="10">
-        <v>192.394</v>
+        <v>191.723</v>
       </c>
       <c r="DL28" t="n" s="10">
-        <v>184.429</v>
+        <v>186.532</v>
       </c>
       <c r="DM28" t="n" s="10">
-        <v>191.032</v>
+        <v>190.497</v>
       </c>
       <c r="DN28" t="n" s="10">
-        <v>185.086</v>
+        <v>183.458</v>
       </c>
       <c r="DO28" t="n" s="10">
-        <v>181.771</v>
+        <v>180.4</v>
       </c>
       <c r="DP28" t="n" s="10">
-        <v>136.09</v>
+        <v>140.709</v>
       </c>
       <c r="DQ28" t="n" s="10">
-        <v>176.698</v>
+        <v>176.004</v>
       </c>
       <c r="DR28" t="n" s="10">
-        <v>181.469</v>
+        <v>179.037</v>
       </c>
       <c r="DS28" t="n" s="10">
-        <v>186.274</v>
+        <v>184.477</v>
       </c>
       <c r="DT28" t="n" s="10">
-        <v>184.588</v>
-      </c>
-      <c r="DU28" t="s" s="10">
-        <v>43</v>
+        <v>191.631</v>
+      </c>
+      <c r="DU28" t="n" s="10">
+        <v>200.138</v>
       </c>
       <c r="DV28" t="s" s="10">
         <v>43</v>
@@ -11059,61 +11059,61 @@
         <v>42</v>
       </c>
       <c r="C29" t="n" s="10">
-        <v>207.636</v>
+        <v>207.629</v>
       </c>
       <c r="D29" t="n" s="10">
-        <v>214.187</v>
+        <v>214.096</v>
       </c>
       <c r="E29" t="n" s="10">
-        <v>214.529</v>
+        <v>214.413</v>
       </c>
       <c r="F29" t="n" s="10">
-        <v>219.316</v>
+        <v>219.538</v>
       </c>
       <c r="G29" t="n" s="10">
-        <v>226.026</v>
+        <v>226.056</v>
       </c>
       <c r="H29" t="n" s="10">
-        <v>229.519</v>
+        <v>229.392</v>
       </c>
       <c r="I29" t="n" s="10">
-        <v>235.537</v>
+        <v>235.394</v>
       </c>
       <c r="J29" t="n" s="10">
-        <v>236.243</v>
+        <v>236.467</v>
       </c>
       <c r="K29" t="n" s="10">
-        <v>233.68</v>
+        <v>233.742</v>
       </c>
       <c r="L29" t="n" s="10">
-        <v>237.435</v>
+        <v>237.299</v>
       </c>
       <c r="M29" t="n" s="10">
-        <v>237.855</v>
+        <v>237.759</v>
       </c>
       <c r="N29" t="n" s="10">
-        <v>240.096</v>
+        <v>240.221</v>
       </c>
       <c r="O29" t="n" s="10">
-        <v>241.807</v>
+        <v>241.847</v>
       </c>
       <c r="P29" t="n" s="10">
-        <v>241.95</v>
+        <v>241.894</v>
       </c>
       <c r="Q29" t="n" s="10">
-        <v>243.675</v>
+        <v>243.659</v>
       </c>
       <c r="R29" t="n" s="10">
-        <v>246.836</v>
+        <v>246.848</v>
       </c>
       <c r="S29" t="n" s="10">
-        <v>248.472</v>
+        <v>248.479</v>
       </c>
       <c r="T29" t="n" s="10">
-        <v>251.894</v>
+        <v>251.892</v>
       </c>
       <c r="U29" t="n" s="10">
-        <v>253.315</v>
+        <v>253.314</v>
       </c>
       <c r="V29" t="n" s="10">
         <v>255.29</v>
@@ -11242,70 +11242,70 @@
         <v>289.219</v>
       </c>
       <c r="BL29" t="n" s="10">
-        <v>291.147</v>
+        <v>291.146</v>
       </c>
       <c r="BM29" t="n" s="10">
-        <v>294.15</v>
+        <v>294.149</v>
       </c>
       <c r="BN29" t="n" s="10">
-        <v>295.546</v>
+        <v>295.545</v>
       </c>
       <c r="BO29" t="n" s="10">
-        <v>297.758</v>
+        <v>297.767</v>
       </c>
       <c r="BP29" t="n" s="10">
-        <v>299.984</v>
+        <v>299.983</v>
       </c>
       <c r="BQ29" t="n" s="10">
-        <v>301.913</v>
+        <v>301.895</v>
       </c>
       <c r="BR29" t="n" s="10">
-        <v>304.61</v>
+        <v>304.574</v>
       </c>
       <c r="BS29" t="n" s="10">
-        <v>308.686</v>
+        <v>308.794</v>
       </c>
       <c r="BT29" t="n" s="10">
-        <v>312.135</v>
+        <v>312.1</v>
       </c>
       <c r="BU29" t="n" s="10">
-        <v>313.945</v>
+        <v>313.893</v>
       </c>
       <c r="BV29" t="n" s="10">
-        <v>316.243</v>
+        <v>316.172</v>
       </c>
       <c r="BW29" t="n" s="10">
-        <v>313.971</v>
+        <v>314.166</v>
       </c>
       <c r="BX29" t="n" s="10">
-        <v>313.622</v>
+        <v>313.551</v>
       </c>
       <c r="BY29" t="n" s="10">
-        <v>314.988</v>
+        <v>314.936</v>
       </c>
       <c r="BZ29" t="n" s="10">
-        <v>315.756</v>
+        <v>315.721</v>
       </c>
       <c r="CA29" t="n" s="10">
-        <v>319.159</v>
+        <v>319.266</v>
       </c>
       <c r="CB29" t="n" s="10">
-        <v>322.053</v>
+        <v>322.017</v>
       </c>
       <c r="CC29" t="n" s="10">
-        <v>325.389</v>
+        <v>325.371</v>
       </c>
       <c r="CD29" t="n" s="10">
         <v>329.008</v>
       </c>
       <c r="CE29" t="n" s="10">
-        <v>333.129</v>
+        <v>333.138</v>
       </c>
       <c r="CF29" t="n" s="10">
         <v>336.606</v>
       </c>
       <c r="CG29" t="n" s="10">
-        <v>339.434</v>
+        <v>339.433</v>
       </c>
       <c r="CH29" t="n" s="10">
         <v>342.42</v>
@@ -11365,67 +11365,67 @@
         <v>403.556</v>
       </c>
       <c r="DA29" t="n" s="10">
-        <v>408.066</v>
+        <v>408.067</v>
       </c>
       <c r="DB29" t="n" s="10">
-        <v>412.419</v>
+        <v>412.42</v>
       </c>
       <c r="DC29" t="n" s="10">
-        <v>416.992</v>
+        <v>416.993</v>
       </c>
       <c r="DD29" t="n" s="10">
-        <v>421.722</v>
+        <v>421.708</v>
       </c>
       <c r="DE29" t="n" s="10">
         <v>425.857</v>
       </c>
       <c r="DF29" t="n" s="10">
-        <v>431.124</v>
+        <v>431.159</v>
       </c>
       <c r="DG29" t="n" s="10">
-        <v>435.563</v>
+        <v>435.626</v>
       </c>
       <c r="DH29" t="n" s="10">
-        <v>441.09</v>
+        <v>440.858</v>
       </c>
       <c r="DI29" t="n" s="10">
-        <v>445.901</v>
+        <v>445.935</v>
       </c>
       <c r="DJ29" t="n" s="10">
-        <v>450.19</v>
+        <v>450.468</v>
       </c>
       <c r="DK29" t="n" s="10">
-        <v>455.422</v>
+        <v>455.828</v>
       </c>
       <c r="DL29" t="n" s="10">
-        <v>465.633</v>
+        <v>464.32</v>
       </c>
       <c r="DM29" t="n" s="10">
-        <v>466.781</v>
+        <v>466.945</v>
       </c>
       <c r="DN29" t="n" s="10">
-        <v>466.318</v>
+        <v>467.502</v>
       </c>
       <c r="DO29" t="n" s="10">
-        <v>466.931</v>
+        <v>467.981</v>
       </c>
       <c r="DP29" t="n" s="10">
-        <v>454.427</v>
+        <v>452.132</v>
       </c>
       <c r="DQ29" t="n" s="10">
-        <v>463.122</v>
+        <v>463.207</v>
       </c>
       <c r="DR29" t="n" s="10">
-        <v>466.613</v>
+        <v>468.398</v>
       </c>
       <c r="DS29" t="n" s="10">
-        <v>464.886</v>
+        <v>466.323</v>
       </c>
       <c r="DT29" t="n" s="10">
-        <v>477.405</v>
-      </c>
-      <c r="DU29" t="s" s="10">
-        <v>43</v>
+        <v>476.209</v>
+      </c>
+      <c r="DU29" t="n" s="10">
+        <v>483.157</v>
       </c>
       <c r="DV29" t="s" s="10">
         <v>43</v>
@@ -11500,7 +11500,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 09:45:26&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:48:23&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>